--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3448.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3448.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144134779019482</v>
+        <v>1.254443526268005</v>
       </c>
       <c r="B1">
-        <v>1.991014140035984</v>
+        <v>2.231007814407349</v>
       </c>
       <c r="C1">
-        <v>2.596468213955132</v>
+        <v>6.155633926391602</v>
       </c>
       <c r="D1">
-        <v>2.968890856346873</v>
+        <v>1.393369317054749</v>
       </c>
       <c r="E1">
-        <v>3.660334986305802</v>
+        <v>1.34547233581543</v>
       </c>
     </row>
   </sheetData>
